--- a/ResultsEnvelopeExcel.xlsx
+++ b/ResultsEnvelopeExcel.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C:/Github/PR_nonpeneloux_calculator/input_data.xlsx</t>
+          <t>C:/Github/PR_nonpeneloux_calculator/PVTSIM_Fluid1_sostav.xlsx</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,15 +553,33 @@
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Доля жидкости</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Сверхсжимаемость жидкости</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Сверхсжимаемость пара</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>Temp [K]</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Pressure [MPa]</t>
         </is>
@@ -569,9 +587,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>0.1361355482336537</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.01713922821082153</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9864425747021748</v>
+      </c>
+      <c r="D2" t="n">
         <v>230</v>
       </c>
-      <c r="B2" t="n">
+      <c r="E2" t="n">
         <v>0.2</v>
       </c>
     </row>
